--- a/Enrollproject/CaoFeiDian.xlsx
+++ b/Enrollproject/CaoFeiDian.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>姓名</t>
   </si>
@@ -41,10 +41,10 @@
     <t>午餐</t>
   </si>
   <si>
-    <t>zhou kk3</t>
-  </si>
-  <si>
-    <t>17040502032</t>
+    <t>付子聪</t>
+  </si>
+  <si>
+    <t>15930224074</t>
   </si>
   <si>
     <t>管联</t>
@@ -53,61 +53,505 @@
     <t>曹妃甸</t>
   </si>
   <si>
+    <t>单人间</t>
+  </si>
+  <si>
+    <t>单程去</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:51:10</t>
+  </si>
+  <si>
+    <t>张锋铄</t>
+  </si>
+  <si>
+    <t>15963595606</t>
+  </si>
+  <si>
+    <t>医学</t>
+  </si>
+  <si>
+    <t>双人间</t>
+  </si>
+  <si>
+    <t>双程</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:56:51</t>
+  </si>
+  <si>
+    <t>郭小家</t>
+  </si>
+  <si>
+    <t>15227117791</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:56:57</t>
+  </si>
+  <si>
+    <t>张立稳</t>
+  </si>
+  <si>
+    <t>13292581852</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:04:14</t>
+  </si>
+  <si>
+    <t>王志刚</t>
+  </si>
+  <si>
+    <t>13292578757</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:04:21</t>
+  </si>
+  <si>
+    <t>王子帆</t>
+  </si>
+  <si>
+    <t>13273520587</t>
+  </si>
+  <si>
+    <t>建工</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:48:30</t>
+  </si>
+  <si>
+    <t>陈巧</t>
+  </si>
+  <si>
+    <t>15075596873</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:05:57</t>
+  </si>
+  <si>
+    <t>谢鹏</t>
+  </si>
+  <si>
+    <t>18332632802</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:16:44</t>
+  </si>
+  <si>
+    <t>刘再强</t>
+  </si>
+  <si>
+    <t>18015188276</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:18:39</t>
+  </si>
+  <si>
+    <t>王裕兴</t>
+  </si>
+  <si>
+    <t>13231552769</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:19:26</t>
+  </si>
+  <si>
+    <t>赵帅博</t>
+  </si>
+  <si>
+    <t>15369310668</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:23:12</t>
+  </si>
+  <si>
+    <t>李大伟</t>
+  </si>
+  <si>
+    <t>15931913887</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:23:38</t>
+  </si>
+  <si>
+    <t>王嘉琦</t>
+  </si>
+  <si>
+    <t>15102520427</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:26:10</t>
+  </si>
+  <si>
+    <t>刘聪</t>
+  </si>
+  <si>
+    <t>15931596657</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:26:25</t>
+  </si>
+  <si>
+    <t>黄伟</t>
+  </si>
+  <si>
+    <t>18332769385</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:26:34</t>
+  </si>
+  <si>
+    <t>王敬恩</t>
+  </si>
+  <si>
+    <t>15227367730</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:27:30</t>
+  </si>
+  <si>
+    <t>刘西佳</t>
+  </si>
+  <si>
+    <t>18332705560</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>2018-11-10 01:21:28</t>
-  </si>
-  <si>
-    <t>zhou kk333336</t>
-  </si>
-  <si>
-    <t>2018-11-10 01:29:34</t>
-  </si>
-  <si>
-    <t>zhou kk</t>
-  </si>
-  <si>
-    <t>17040502031</t>
-  </si>
-  <si>
-    <t>2018-11-10 01:37:23</t>
-  </si>
-  <si>
-    <t>张丽娟</t>
-  </si>
-  <si>
-    <t>18032519800</t>
-  </si>
-  <si>
-    <t>单人间</t>
-  </si>
-  <si>
-    <t>单程</t>
-  </si>
-  <si>
-    <t>2018-11-10 14:16:24</t>
-  </si>
-  <si>
-    <t>张猛</t>
-  </si>
-  <si>
-    <t>18232596121</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>双人间</t>
-  </si>
-  <si>
-    <t>双程</t>
-  </si>
-  <si>
-    <t>2018-11-10 15:47:12</t>
+    <t>2018-11-11 17:27:43</t>
+  </si>
+  <si>
+    <t>白晓宁</t>
+  </si>
+  <si>
+    <t>18332671928</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:29:27</t>
+  </si>
+  <si>
+    <t>刘钧梦</t>
+  </si>
+  <si>
+    <t>18332725681</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:31:46</t>
+  </si>
+  <si>
+    <t>闫文建</t>
+  </si>
+  <si>
+    <t>17731242954</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:32:44</t>
+  </si>
+  <si>
+    <t>马壮</t>
+  </si>
+  <si>
+    <t>15103258056</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:35:07</t>
+  </si>
+  <si>
+    <t>陈金潮</t>
+  </si>
+  <si>
+    <t>18731566365</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:35:12</t>
+  </si>
+  <si>
+    <t>吕金源</t>
+  </si>
+  <si>
+    <t>18103156028</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:37:58</t>
+  </si>
+  <si>
+    <t>薛玉文</t>
+  </si>
+  <si>
+    <t>18332723021</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:38:11</t>
+  </si>
+  <si>
+    <t>楚港志</t>
+  </si>
+  <si>
+    <t>18332726010</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:41:09</t>
+  </si>
+  <si>
+    <t>刘娜</t>
+  </si>
+  <si>
+    <t>18332608381</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:42:18</t>
+  </si>
+  <si>
+    <t>杨蕊</t>
+  </si>
+  <si>
+    <t>18833217063</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:42:37</t>
+  </si>
+  <si>
+    <t>贺兴辉</t>
+  </si>
+  <si>
+    <t>18332765261</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:43:13</t>
+  </si>
+  <si>
+    <t>潘阔</t>
+  </si>
+  <si>
+    <t>15175992977</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:45:12</t>
+  </si>
+  <si>
+    <t>李思明</t>
+  </si>
+  <si>
+    <t>18332721827</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:45:19</t>
+  </si>
+  <si>
+    <t>李菲</t>
+  </si>
+  <si>
+    <t>18332781513</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:46:12</t>
+  </si>
+  <si>
+    <t>唐宇</t>
+  </si>
+  <si>
+    <t>18332706310</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:46:47</t>
+  </si>
+  <si>
+    <t>沈小娜</t>
+  </si>
+  <si>
+    <t>18332768171</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:47:00</t>
+  </si>
+  <si>
+    <t>黄英俊</t>
+  </si>
+  <si>
+    <t>18332703996</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:47:05</t>
+  </si>
+  <si>
+    <t>魏子鑫</t>
+  </si>
+  <si>
+    <t>18931929975</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:48:27</t>
+  </si>
+  <si>
+    <t>杜冠华</t>
+  </si>
+  <si>
+    <t>18332756525</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:50:36</t>
+  </si>
+  <si>
+    <t>孔颢儒</t>
+  </si>
+  <si>
+    <t>15930513979</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:51:29</t>
+  </si>
+  <si>
+    <t>贺璇</t>
+  </si>
+  <si>
+    <t>15632810987</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:53:18</t>
+  </si>
+  <si>
+    <t>陈晓旭</t>
+  </si>
+  <si>
+    <t>15530543772</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:53:57</t>
+  </si>
+  <si>
+    <t>刘宗晗</t>
+  </si>
+  <si>
+    <t>18332728805</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:56:04</t>
+  </si>
+  <si>
+    <t>周玉林</t>
+  </si>
+  <si>
+    <t>15081816183</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:58:19</t>
+  </si>
+  <si>
+    <t>李璇</t>
+  </si>
+  <si>
+    <t>18332769360</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:58:52</t>
+  </si>
+  <si>
+    <t>丁祥成</t>
+  </si>
+  <si>
+    <t>17788266367</t>
+  </si>
+  <si>
+    <t>2018-11-11 17:59:00</t>
+  </si>
+  <si>
+    <t>吴超俊</t>
+  </si>
+  <si>
+    <t>18332727386</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:00:31</t>
+  </si>
+  <si>
+    <t>王子维</t>
+  </si>
+  <si>
+    <t>18632877895</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:01:26</t>
+  </si>
+  <si>
+    <t>王歌</t>
+  </si>
+  <si>
+    <t>18332776673</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:01:47</t>
+  </si>
+  <si>
+    <t>姜田宝</t>
+  </si>
+  <si>
+    <t>18842896159</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:02:26</t>
+  </si>
+  <si>
+    <t>王涛</t>
+  </si>
+  <si>
+    <t>17349851192</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:03:09</t>
+  </si>
+  <si>
+    <t>杨旭东</t>
+  </si>
+  <si>
+    <t>13230586183</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:04:48</t>
+  </si>
+  <si>
+    <t>王琛</t>
+  </si>
+  <si>
+    <t>18332727728</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:04:49</t>
+  </si>
+  <si>
+    <t>申俊峰</t>
+  </si>
+  <si>
+    <t>18332698155</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:05:43</t>
+  </si>
+  <si>
+    <t>廖启翔</t>
+  </si>
+  <si>
+    <t>18031596825</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:07:41</t>
+  </si>
+  <si>
+    <t>张子涵</t>
+  </si>
+  <si>
+    <t>18332705897</t>
+  </si>
+  <si>
+    <t>2018-11-11 18:08:01</t>
   </si>
 </sst>
 </file>
@@ -447,6 +891,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="25"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+    <col customWidth="1" max="8" min="8" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -491,158 +1014,106 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-    <col customWidth="1" max="8" min="8" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -651,58 +1122,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-    <col customWidth="1" max="8" min="8" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,28 +1171,1303 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="25"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+    <col customWidth="1" max="8" min="8" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Enrollproject/CaoFeiDian.xlsx
+++ b/Enrollproject/CaoFeiDian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="管联" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="医学" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="建工" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="其它" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="管联" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="医学" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="建工" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="其它" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
